--- a/engine details.xlsx
+++ b/engine details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vibinraj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D1740C-09B8-47EB-9756-0F7951AA4EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F5D0D7-AA0B-4344-AF7E-B96D7C5FDFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{B643F703-19F9-4394-A772-271A705FF5CD}"/>
   </bookViews>
@@ -17,12 +17,13 @@
     <sheet name="AMC" sheetId="1" r:id="rId2"/>
     <sheet name="CAMC-PIVOT" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
-    <sheet name="CAMC" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet" sheetId="7" r:id="rId5"/>
+    <sheet name="CAMC" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="49" r:id="rId6"/>
-    <pivotCache cacheId="58" r:id="rId7"/>
+    <pivotCache cacheId="49" r:id="rId7"/>
+    <pivotCache cacheId="58" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5376" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5389" uniqueCount="1111">
   <si>
     <t xml:space="preserve">Location_Standardized </t>
   </si>
@@ -3348,6 +3349,33 @@
   </si>
   <si>
     <t>Anekal (incl Att.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South </t>
+  </si>
+  <si>
+    <t xml:space="preserve">East </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rural </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anekal (incl Att.) </t>
   </si>
 </sst>
 </file>
@@ -31383,10 +31411,185 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F81092-1E6A-42FA-9007-A7160520A416}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B2">
+        <v>13.09</v>
+      </c>
+      <c r="C2">
+        <v>77.59</v>
+      </c>
+      <c r="D2">
+        <v>350</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B3">
+        <v>12.9</v>
+      </c>
+      <c r="C3">
+        <v>77.58</v>
+      </c>
+      <c r="D3">
+        <v>148</v>
+      </c>
+      <c r="E3">
+        <v>78</v>
+      </c>
+      <c r="F3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B4">
+        <v>12.98</v>
+      </c>
+      <c r="C4">
+        <v>77.7</v>
+      </c>
+      <c r="D4">
+        <v>391</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B5">
+        <v>12.97</v>
+      </c>
+      <c r="C5">
+        <v>77.52</v>
+      </c>
+      <c r="D5">
+        <v>62</v>
+      </c>
+      <c r="E5">
+        <v>43</v>
+      </c>
+      <c r="F5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B6">
+        <v>12.9716</v>
+      </c>
+      <c r="C6">
+        <v>77.5946</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>51</v>
+      </c>
+      <c r="F6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B7">
+        <v>13.05</v>
+      </c>
+      <c r="C7">
+        <v>77.45</v>
+      </c>
+      <c r="D7">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B8">
+        <v>12.71</v>
+      </c>
+      <c r="C8">
+        <v>77.694999999999993</v>
+      </c>
+      <c r="D8">
+        <v>84</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50801997-5932-479F-A7BB-B929CDAA884F}">
   <dimension ref="A1:I576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
